--- a/上传订单转换工具所需文件/上传订单的母单表子单表及释义/Template/UploadOrderDescription.xlsx
+++ b/上传订单转换工具所需文件/上传订单的母单表子单表及释义/Template/UploadOrderDescription.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12984" windowHeight="7684"/>
+    <workbookView windowWidth="10951" windowHeight="9438"/>
   </bookViews>
   <sheets>
     <sheet name="上传订单文件说明" sheetId="2" r:id="rId1"/>
@@ -1080,12 +1080,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
       <t>0</t>
     </r>
     <r>
@@ -1351,12 +1345,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
       <t>0</t>
     </r>
     <r>
@@ -3686,8 +3674,8 @@
   <sheetPr/>
   <dimension ref="B1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="13.3" outlineLevelCol="4"/>
@@ -3836,7 +3824,7 @@
       </c>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" ht="135" customHeight="1" spans="2:5">
+    <row r="12" ht="188.75" spans="2:5">
       <c r="B12" s="6" t="s">
         <v>31</v>
       </c>
@@ -4045,7 +4033,7 @@
       </c>
       <c r="E28" s="5"/>
     </row>
-    <row r="29" ht="17.1" customHeight="1" spans="2:5">
+    <row r="29" ht="15.7" spans="2:5">
       <c r="B29" s="6" t="s">
         <v>29</v>
       </c>

--- a/上传订单转换工具所需文件/上传订单的母单表子单表及释义/Template/UploadOrderDescription.xlsx
+++ b/上传订单转换工具所需文件/上传订单的母单表子单表及释义/Template/UploadOrderDescription.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="10951" windowHeight="9438"/>
+    <workbookView windowWidth="16142" windowHeight="9438"/>
   </bookViews>
   <sheets>
     <sheet name="上传订单文件说明" sheetId="2" r:id="rId1"/>
@@ -1080,6 +1080,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>0</t>
     </r>
     <r>
@@ -2006,12 +2012,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
       <t>0</t>
     </r>
     <r>
@@ -2357,12 +2357,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
       <t>0</t>
     </r>
     <r>
@@ -3674,8 +3668,8 @@
   <sheetPr/>
   <dimension ref="B1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="13.3" outlineLevelCol="4"/>
